--- a/Productivity_analysis_SO.xlsx
+++ b/Productivity_analysis_SO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STEFFEN\RSPB\Marine\Bycatch\MSCreview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STEFFEN\RSPB\Marine\Bycatch\MSCreview\MSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60CFB0-2986-47E0-B724-1A374C6909AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E5E9B-D69E-4F28-AACD-3F0BB86D5D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIRDS" sheetId="22" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>Average age at maturity</t>
   </si>
@@ -217,6 +217,27 @@
   </si>
   <si>
     <t>missing Common and Velvet Scoter</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>AFB</t>
+  </si>
+  <si>
+    <t>fec</t>
+  </si>
+  <si>
+    <t>mort</t>
+  </si>
+  <si>
+    <t>surv</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Growth rate score</t>
   </si>
 </sst>
 </file>
@@ -494,7 +515,7 @@
     <cellStyle name="Normal 3 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="128">
     <dxf>
       <fill>
         <patternFill>
@@ -1292,62 +1313,6 @@
       <font>
         <strike val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1849,21 +1814,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F165DB-BE10-4384-8F7F-97413364FA78}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD395"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -1885,8 +1850,29 @@
       <c r="G1" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1903,11 +1889,29 @@
         <f t="shared" ref="G2:G16" si="0">AVERAGE(E2:F2)</f>
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>0.93</v>
+      </c>
+      <c r="M2">
+        <v>0.97303779783774103</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1924,11 +1928,29 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>7.44166666666667</v>
+      </c>
+      <c r="L3">
+        <v>0.92558333333333398</v>
+      </c>
+      <c r="M3">
+        <v>0.99203691726676901</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -1945,8 +1967,26 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>8.9</v>
+      </c>
+      <c r="J4">
+        <v>0.6</v>
+      </c>
+      <c r="K4">
+        <v>7.6</v>
+      </c>
+      <c r="L4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M4">
+        <v>0.99965935697173103</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1963,8 +2003,26 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <v>7.44166666666667</v>
+      </c>
+      <c r="L5">
+        <v>0.92558333333333398</v>
+      </c>
+      <c r="M5">
+        <v>1.0337527004886999</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="21"/>
@@ -1981,11 +2039,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>0.6</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>0.92</v>
+      </c>
+      <c r="M6">
+        <v>1.02794453698054</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2002,11 +2078,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0.6</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>0.84</v>
+      </c>
+      <c r="M7">
+        <v>0.98189274119577497</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2023,8 +2117,26 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0.6</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>0.85</v>
+      </c>
+      <c r="M8">
+        <v>1.0220961271076601</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2041,11 +2153,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0.6</v>
+      </c>
+      <c r="K9">
+        <v>7.44166666666667</v>
+      </c>
+      <c r="L9">
+        <v>0.92558333333333398</v>
+      </c>
+      <c r="M9">
+        <v>1.07161443969788</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="21"/>
@@ -2062,11 +2192,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.6</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>0.8</v>
+      </c>
+      <c r="M10">
+        <v>0.91868676919691705</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2083,11 +2231,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="M11">
+        <v>1.0448409680202499</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2104,11 +2270,29 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.58211999999999997</v>
+      </c>
+      <c r="K12">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>0.83</v>
+      </c>
+      <c r="M12">
+        <v>0.99723845638201603</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="23"/>
       <c r="C13" s="21"/>
@@ -2125,11 +2309,29 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>4.5</v>
+      </c>
+      <c r="J13">
+        <v>0.6</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>0.88</v>
+      </c>
+      <c r="M13">
+        <v>1.02388346709182</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -2146,11 +2348,29 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>0.84</v>
+      </c>
+      <c r="M14">
+        <v>0.96065763275719795</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2167,8 +2387,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>0.75</v>
+      </c>
+      <c r="M15">
+        <v>1.0620061998860799</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2185,11 +2423,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16">
+        <v>2.5</v>
+      </c>
+      <c r="J16">
+        <v>1.0533600000000001</v>
+      </c>
+      <c r="K16">
+        <v>7.44166666666667</v>
+      </c>
+      <c r="L16">
+        <v>0.77</v>
+      </c>
+      <c r="M16">
+        <v>1.10442519242154</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2205,80 +2461,80 @@
   </protectedRanges>
   <autoFilter ref="A1:G1" xr:uid="{41F165DB-BE10-4384-8F7F-97413364FA78}"/>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="135" priority="58">
+    <cfRule type="expression" dxfId="127" priority="58">
       <formula>ISNUMBER(E17)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="59">
+    <cfRule type="expression" dxfId="126" priority="59">
       <formula>#REF!="Invertebrate"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="60">
+    <cfRule type="expression" dxfId="125" priority="60">
       <formula>#REF!="Non-invertebrate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="132" priority="61">
+    <cfRule type="expression" dxfId="124" priority="61">
       <formula>ISNUMBER(F17)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="62">
+    <cfRule type="expression" dxfId="123" priority="62">
       <formula>#REF!="Invertebrate"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="63">
+    <cfRule type="expression" dxfId="122" priority="63">
       <formula>#REF!="Non-invertebrate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11 B13:B14 B16:B17">
-    <cfRule type="expression" dxfId="129" priority="56">
+    <cfRule type="expression" dxfId="121" priority="56">
       <formula>ISTEXT(B6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="57">
+    <cfRule type="expression" dxfId="120" priority="57">
       <formula>ISNUMBER(A6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C17">
-    <cfRule type="expression" dxfId="127" priority="54">
+    <cfRule type="expression" dxfId="119" priority="54">
       <formula>ISTEXT(C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="55">
+    <cfRule type="expression" dxfId="118" priority="55">
       <formula>ISNUMBER(A6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="125" priority="52">
+    <cfRule type="expression" dxfId="117" priority="52">
       <formula>ISTEXT(D17)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="53">
+    <cfRule type="expression" dxfId="116" priority="53">
       <formula>ISNUMBER(A17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="123" priority="48">
+    <cfRule type="expression" dxfId="115" priority="48">
       <formula>ISTEXT(B2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="49">
+    <cfRule type="expression" dxfId="114" priority="49">
       <formula>ISNUMBER(XES2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C5">
-    <cfRule type="expression" dxfId="121" priority="46">
+    <cfRule type="expression" dxfId="113" priority="46">
       <formula>ISTEXT(C2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="47">
+    <cfRule type="expression" dxfId="112" priority="47">
       <formula>ISNUMBER(XES2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="113" priority="21">
+    <cfRule type="expression" dxfId="111" priority="21">
       <formula>ISTEXT(B12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="22">
+    <cfRule type="expression" dxfId="110" priority="22">
       <formula>ISNUMBER(XES12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="111" priority="19">
+    <cfRule type="expression" dxfId="109" priority="19">
       <formula>ISTEXT(B15)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="20">
+    <cfRule type="expression" dxfId="108" priority="20">
       <formula>ISNUMBER(XES15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2363,15 +2619,15 @@
       <selection activeCell="D2" sqref="D2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -2394,77 +2650,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2533,16 +2789,16 @@
       <selection activeCell="P114" sqref="P114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2618,7 +2874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2644,7 +2900,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2670,7 +2926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2696,7 +2952,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2722,7 +2978,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2748,7 +3004,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2774,7 +3030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2800,7 +3056,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2826,7 +3082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2852,7 +3108,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -2878,7 +3134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
@@ -2904,7 +3160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2930,7 +3186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2956,7 +3212,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2982,7 +3238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3008,7 +3264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -3034,7 +3290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="G19" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3053,7 +3309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="G20" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3072,7 +3328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="G21" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3091,7 +3347,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="G22" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3110,7 +3366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="G23" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3129,7 +3385,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="G24" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3148,7 +3404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="G25" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3167,7 +3423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="G26" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3186,7 +3442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="G27" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3205,7 +3461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="G28" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3224,7 +3480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="G29" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3243,7 +3499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="G30" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3262,7 +3518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="G31" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3281,7 +3537,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="G32" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3300,7 +3556,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="G33" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3319,7 +3575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="G34" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3338,7 +3594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="G35" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3357,7 +3613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="G36" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3376,7 +3632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="G37" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3395,7 +3651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="G38" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3414,7 +3670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="G39" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3433,7 +3689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="G40" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3452,7 +3708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="G41" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3471,7 +3727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="G42" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3490,7 +3746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="G43" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3509,7 +3765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="G44" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3528,7 +3784,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="G45" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3547,7 +3803,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="G46" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3566,7 +3822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="G47" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3585,7 +3841,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="G48" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3604,7 +3860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="G49" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3623,7 +3879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="G50" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3642,7 +3898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="G51" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3661,7 +3917,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="G52" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3680,7 +3936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="G53" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3699,7 +3955,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="G54" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3718,7 +3974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="G55" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3737,7 +3993,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="G56" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3756,7 +4012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="G57" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3775,7 +4031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="G58" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3794,7 +4050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="G59" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3813,7 +4069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="G60" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3832,7 +4088,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="G61" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3851,7 +4107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="G62" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3870,7 +4126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="G63" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3889,7 +4145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="G64" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3908,7 +4164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="G65" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3927,7 +4183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="G66" s="13" t="e">
         <f t="shared" ref="G66:G129" si="4">AVERAGE(E66:F66)</f>
@@ -3946,7 +4202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="G67" s="13" t="e">
         <f t="shared" si="4"/>
@@ -3965,7 +4221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="G68" s="13" t="e">
         <f t="shared" si="4"/>
@@ -3984,7 +4240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="G69" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4003,7 +4259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="G70" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4022,7 +4278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="G71" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4041,7 +4297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="G72" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4060,7 +4316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="G73" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4079,7 +4335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="G74" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4098,7 +4354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="G75" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4117,7 +4373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="G76" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4136,7 +4392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="G77" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4155,7 +4411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="G78" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4174,7 +4430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="G79" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4193,7 +4449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="G80" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4212,7 +4468,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="G81" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4231,7 +4487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="G82" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4250,7 +4506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="G83" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4269,7 +4525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="G84" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4288,7 +4544,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="G85" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4307,7 +4563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="G86" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4326,7 +4582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="G87" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4345,7 +4601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="G88" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4364,7 +4620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="G89" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4383,7 +4639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="G90" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4402,7 +4658,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="G91" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4421,7 +4677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="G92" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4440,7 +4696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="G93" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4459,7 +4715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="G94" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4478,7 +4734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="G95" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4497,7 +4753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="G96" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4516,7 +4772,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="G97" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4535,7 +4791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="G98" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4554,7 +4810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="G99" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4573,7 +4829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="G100" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4592,7 +4848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="G101" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4611,7 +4867,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="G102" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4630,7 +4886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="G103" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4649,7 +4905,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="G104" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4668,7 +4924,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="G105" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4687,7 +4943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="G106" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4706,7 +4962,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="G107" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4725,7 +4981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="G108" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4744,7 +5000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="G109" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4763,7 +5019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="G110" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4782,7 +5038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="G111" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4801,7 +5057,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="G112" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4820,7 +5076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="G113" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4839,7 +5095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="G114" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4858,7 +5114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="G115" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4877,7 +5133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="G116" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4896,7 +5152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="G117" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4915,7 +5171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="G118" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4930,7 +5186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="G119" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4945,7 +5201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="G120" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4960,7 +5216,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="G121" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4975,7 +5231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="G122" s="13" t="e">
         <f t="shared" si="4"/>
@@ -4990,7 +5246,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="G123" s="13" t="e">
         <f t="shared" si="4"/>
@@ -5005,7 +5261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="G124" s="13" t="e">
         <f t="shared" si="4"/>
@@ -5020,7 +5276,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="G125" s="13" t="e">
         <f t="shared" si="4"/>
@@ -5035,7 +5291,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="G126" s="13" t="e">
         <f t="shared" si="4"/>
@@ -5050,7 +5306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="G127" s="13" t="e">
         <f t="shared" si="4"/>
@@ -5065,7 +5321,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="G128" s="13" t="e">
         <f t="shared" si="4"/>
@@ -5080,7 +5336,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="G129" s="13" t="e">
         <f t="shared" si="4"/>
@@ -5095,7 +5351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="G130" s="13" t="e">
         <f t="shared" ref="G130:G193" si="8">AVERAGE(E130:F130)</f>
@@ -5110,7 +5366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="G131" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5125,7 +5381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="G132" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5140,7 +5396,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="G133" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5155,7 +5411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="G134" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5170,7 +5426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="G135" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5185,7 +5441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="G136" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5200,7 +5456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="G137" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5215,7 +5471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="G138" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5230,7 +5486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="G139" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5245,7 +5501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="G140" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5260,7 +5516,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="G141" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5275,7 +5531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="G142" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5290,7 +5546,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="G143" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5305,7 +5561,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="G144" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5320,7 +5576,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="G145" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5335,7 +5591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="G146" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5350,7 +5606,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="G147" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5365,7 +5621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="G148" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5380,7 +5636,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="G149" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5395,7 +5651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="G150" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5410,7 +5666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="G151" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5425,7 +5681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="G152" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5440,7 +5696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="G153" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5455,7 +5711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="G154" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5470,7 +5726,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="G155" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5485,7 +5741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="G156" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5500,7 +5756,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="G157" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5515,7 +5771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="G158" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5530,7 +5786,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="G159" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5545,7 +5801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="G160" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5560,7 +5816,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="G161" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5575,7 +5831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="G162" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5590,7 +5846,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="G163" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5605,7 +5861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="G164" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5620,7 +5876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="G165" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5635,7 +5891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="G166" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5650,7 +5906,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="G167" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5665,7 +5921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="G168" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5680,7 +5936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="G169" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5695,7 +5951,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="G170" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5710,7 +5966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="G171" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5725,7 +5981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="G172" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5740,7 +5996,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="G173" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5755,7 +6011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="G174" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5770,7 +6026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="G175" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5785,7 +6041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="G176" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5800,7 +6056,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="G177" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5815,7 +6071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="G178" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5830,7 +6086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="G179" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5845,7 +6101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="G180" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5860,7 +6116,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="G181" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5875,7 +6131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="G182" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5890,7 +6146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="G183" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5905,7 +6161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="G184" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5920,7 +6176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="G185" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5935,7 +6191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="G186" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5950,7 +6206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="G187" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5965,7 +6221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="G188" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5980,7 +6236,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="G189" s="13" t="e">
         <f t="shared" si="8"/>
@@ -5995,7 +6251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="G190" s="13" t="e">
         <f t="shared" si="8"/>
@@ -6010,7 +6266,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="G191" s="13" t="e">
         <f t="shared" si="8"/>
@@ -6025,7 +6281,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="G192" s="13" t="e">
         <f t="shared" si="8"/>
@@ -6040,7 +6296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="G193" s="13" t="e">
         <f t="shared" si="8"/>
@@ -6055,7 +6311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="G194" s="13" t="e">
         <f t="shared" ref="G194:G257" si="11">AVERAGE(E194:F194)</f>
@@ -6070,7 +6326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="G195" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6085,7 +6341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="G196" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6100,7 +6356,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="G197" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6115,7 +6371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="G198" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6130,7 +6386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="G199" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6145,7 +6401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="G200" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6160,7 +6416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="G201" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6175,7 +6431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="G202" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6190,7 +6446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="G203" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6205,7 +6461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="G204" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6220,7 +6476,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="G205" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6235,7 +6491,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="G206" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6250,7 +6506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="G207" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6265,7 +6521,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="G208" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6280,7 +6536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="G209" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6295,7 +6551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="G210" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6310,7 +6566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="G211" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6325,7 +6581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="G212" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6340,7 +6596,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="G213" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6355,7 +6611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="G214" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6370,7 +6626,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="G215" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6385,7 +6641,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="G216" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6400,7 +6656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="G217" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6415,7 +6671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="G218" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6430,7 +6686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="G219" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6445,7 +6701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="G220" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6460,7 +6716,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="G221" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6475,7 +6731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="G222" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6490,7 +6746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="G223" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6505,7 +6761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="G224" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6520,7 +6776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="G225" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6535,7 +6791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="G226" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6550,7 +6806,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="G227" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6565,7 +6821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="G228" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6576,7 +6832,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="G229" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6587,7 +6843,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="G230" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6598,7 +6854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="G231" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6609,7 +6865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="G232" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6620,7 +6876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="G233" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6631,7 +6887,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="G234" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6642,7 +6898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="G235" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6653,7 +6909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="G236" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6664,7 +6920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="G237" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6675,7 +6931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="G238" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6686,7 +6942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="G239" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6697,7 +6953,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="G240" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6708,7 +6964,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="G241" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6719,7 +6975,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="G242" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6730,7 +6986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="G243" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6741,7 +6997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="G244" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6752,7 +7008,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="G245" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6763,7 +7019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="G246" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6774,7 +7030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="G247" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6785,7 +7041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="G248" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6796,7 +7052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="G249" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6807,7 +7063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="G250" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6818,7 +7074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="G251" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6829,7 +7085,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="G252" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6840,7 +7096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="G253" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6851,7 +7107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="G254" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6862,7 +7118,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="G255" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6873,7 +7129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="G256" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6884,7 +7140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="G257" s="13" t="e">
         <f t="shared" si="11"/>
@@ -6895,7 +7151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="G258" s="13" t="e">
         <f t="shared" ref="G258:G321" si="14">AVERAGE(E258:F258)</f>
@@ -6906,7 +7162,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="G259" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6917,7 +7173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="G260" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6928,7 +7184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="G261" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6939,7 +7195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="G262" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6950,7 +7206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="G263" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6961,7 +7217,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="G264" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6972,7 +7228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="G265" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6983,7 +7239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="G266" s="13" t="e">
         <f t="shared" si="14"/>
@@ -6994,7 +7250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="G267" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7005,7 +7261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="G268" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7016,7 +7272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="G269" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7027,7 +7283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="G270" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7038,7 +7294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="G271" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7049,7 +7305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="G272" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7060,7 +7316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="G273" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7071,7 +7327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="G274" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7082,7 +7338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="G275" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7093,7 +7349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="G276" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7104,7 +7360,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="G277" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7115,7 +7371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="G278" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7126,7 +7382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="G279" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7137,7 +7393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="G280" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7148,7 +7404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="G281" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7159,7 +7415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="G282" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7170,7 +7426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="G283" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7181,7 +7437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="G284" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7192,7 +7448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="G285" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7203,7 +7459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="G286" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7214,7 +7470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="G287" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7225,7 +7481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="G288" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7236,7 +7492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="G289" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7247,7 +7503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="G290" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7258,7 +7514,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="G291" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7269,7 +7525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="G292" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7280,7 +7536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="G293" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7291,7 +7547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="G294" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7302,7 +7558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="G295" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7313,7 +7569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="G296" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7324,7 +7580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="G297" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7335,7 +7591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="G298" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7346,7 +7602,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="G299" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7357,7 +7613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="G300" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7368,7 +7624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="G301" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7379,7 +7635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="G302" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7390,7 +7646,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="G303" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7401,7 +7657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="G304" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7412,7 +7668,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="G305" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7423,7 +7679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="G306" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7434,7 +7690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="G307" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7445,7 +7701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="G308" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7456,7 +7712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="G309" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7467,7 +7723,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="G310" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7478,7 +7734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="G311" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7489,7 +7745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="G312" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7500,7 +7756,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="G313" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7511,7 +7767,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="G314" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7522,7 +7778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="G315" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7533,7 +7789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="G316" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7544,7 +7800,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="G317" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7555,7 +7811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="G318" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7566,7 +7822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="G319" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7577,7 +7833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="G320" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7588,7 +7844,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="G321" s="13" t="e">
         <f t="shared" si="14"/>
@@ -7599,7 +7855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="G322" s="13" t="e">
         <f t="shared" ref="G322" si="16">AVERAGE(E322:F322)</f>
@@ -7610,7 +7866,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="G323" s="13" t="e">
         <f t="shared" ref="G323:G361" si="18">AVERAGE(E323:F323)</f>
@@ -7621,7 +7877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="G324" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7632,7 +7888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="G325" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7643,7 +7899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="G326" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7654,7 +7910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="G327" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7665,7 +7921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="G328" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7676,7 +7932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="G329" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7687,7 +7943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="G330" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7698,7 +7954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="G331" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7709,7 +7965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="G332" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7720,7 +7976,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="G333" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7731,7 +7987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="G334" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7742,7 +7998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="G335" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7753,7 +8009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="G336" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7764,7 +8020,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="G337" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7775,7 +8031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="G338" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7786,7 +8042,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="G339" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7797,7 +8053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="G340" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7808,7 +8064,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="G341" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7819,7 +8075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="G342" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7830,7 +8086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="G343" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7841,7 +8097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="G344" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7852,7 +8108,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="G345" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7863,7 +8119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="G346" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7874,7 +8130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="G347" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7885,7 +8141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="G348" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7896,7 +8152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="G349" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7907,7 +8163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="G350" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7918,7 +8174,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="G351" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7929,7 +8185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="G352" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7940,7 +8196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="G353" s="13" t="e">
         <f t="shared" si="18"/>
@@ -7951,7 +8207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G354" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -7961,7 +8217,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G355" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -7971,7 +8227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G356" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -7981,7 +8237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G357" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -7991,7 +8247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G358" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -8001,7 +8257,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G359" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -8011,7 +8267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G360" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -8021,7 +8277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G361" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -8224,15 +8480,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -8258,7 +8514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8271,7 +8527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8284,7 +8540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8297,7 +8553,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8310,7 +8566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8323,7 +8579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8336,7 +8592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8349,7 +8605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8362,7 +8618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8375,7 +8631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -8388,7 +8644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -8401,7 +8657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
@@ -8414,7 +8670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -8427,7 +8683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -8440,7 +8696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -8453,7 +8709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -8466,7 +8722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -8479,2394 +8735,2394 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="H19" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="H20" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="H21" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="H22" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="H23" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="H24" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="H25" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="H26" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="H27" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="H28" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="H29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="H30" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="H31" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="H32" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="H33" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="H34" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="H35" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="H36" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="H37" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="H38" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="H39" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="H40" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="H41" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="H42" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="H43" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="H44" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="H45" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="H46" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="H47" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="H48" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="H49" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="H50" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="H51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="H52" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="H53" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="H54" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="H55" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="H56" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="H57" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="H58" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="H59" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="H60" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="H61" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="H62" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="H63" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="H64" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="H65" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="H66" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="H67" s="13" t="e">
         <f t="shared" ref="H67:H130" si="1">AVERAGE(E67:G67)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="H68" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="H69" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="H70" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="H71" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="H72" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="H73" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="H74" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="H75" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="H76" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="H77" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="H78" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="H79" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="H80" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="H81" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="H82" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="H83" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="H84" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="H85" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="H86" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="H87" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="H88" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="H89" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="H90" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="H91" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="H92" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="H93" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="H94" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="H95" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="H96" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="H97" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="H98" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="H99" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="H100" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="H101" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="H102" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="H103" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="H104" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="H105" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="H106" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="H107" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="H108" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="H109" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="H110" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="H111" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="H112" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="H113" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="H114" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="H115" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="H116" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="H117" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="H118" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="H119" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="H120" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="H121" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="H122" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="H123" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="H124" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="H125" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="H126" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="H127" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="H128" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="H129" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="H130" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="H131" s="13" t="e">
         <f t="shared" ref="H131:H194" si="2">AVERAGE(E131:G131)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="H132" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="H133" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="H134" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="H135" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="H136" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="H137" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="H138" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="H139" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="H140" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="H141" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="H142" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="H143" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="H144" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="H145" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="H146" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="H147" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="H148" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="H149" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="H150" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="H151" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="H152" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="H153" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="H154" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="H155" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="H156" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="H157" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="H158" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="H159" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="H160" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="H161" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="H162" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="H163" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="H164" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="H165" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="H166" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="H167" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="H168" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="H169" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="H170" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="H171" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="H172" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="H173" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="H174" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="H175" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="H176" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="H177" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="H178" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="H179" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="H180" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="H181" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="H182" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="H183" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="H184" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="H185" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="H186" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="H187" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="H188" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="H189" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="H190" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="H191" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="H192" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="H193" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="H194" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="H195" s="13" t="e">
         <f t="shared" ref="H195:H258" si="3">AVERAGE(E195:G195)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="H196" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="H197" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="H198" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="H199" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="H200" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="H201" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="H202" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="H203" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="H204" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="H205" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="H206" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="H207" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="H208" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="H209" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="H210" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="H211" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="H212" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="H213" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="H214" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="H215" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="H216" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="H217" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="H218" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="H219" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="H220" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="H221" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="H222" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="H223" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="H224" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="H225" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="H226" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="H227" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="H228" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="H229" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="H230" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="H231" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="H232" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="H233" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="H234" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="H235" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="H236" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="H237" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="H238" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="H239" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="H240" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="H241" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="H242" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="H243" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="H244" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="H245" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="H246" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="H247" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="H248" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="H249" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="H250" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="H251" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="H252" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="H253" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="H254" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="H255" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="H256" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="H257" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="H258" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="H259" s="13" t="e">
         <f t="shared" ref="H259:H322" si="4">AVERAGE(E259:G259)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="H260" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="H261" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="H262" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="H263" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="H264" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="H265" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="H266" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="H267" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="H268" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="H269" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="H270" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="H271" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="H272" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="H273" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="H274" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="H275" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="H276" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="H277" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="H278" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="H279" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="H280" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="H281" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="H282" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="H283" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="H284" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="H285" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="H286" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="H287" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="H288" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="H289" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="H290" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="H291" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="H292" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="H293" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="H294" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="H295" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="H296" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="H297" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="H298" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="H299" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="H300" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="H301" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="H302" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="H303" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="H304" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="H305" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="H306" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="H307" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="H308" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="H309" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="H310" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="H311" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="H312" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="H313" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="H314" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="H315" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="H316" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="H317" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="H318" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="H319" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="H320" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="H321" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="H322" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="H323" s="13" t="e">
         <f t="shared" ref="H323:H361" si="5">AVERAGE(E323:G323)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="H324" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="H325" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="H326" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="H327" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="H328" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="H329" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="H330" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="H331" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="H332" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="H333" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="H334" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="H335" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="H336" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="H337" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="H338" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="H339" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="H340" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="H341" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="H342" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="H343" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="H344" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="H345" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="H346" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="H347" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="H348" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="H349" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="H350" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="H351" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="H352" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="H353" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H354" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H355" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H356" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H357" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H358" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H359" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H360" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H361" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -11043,357 +11299,357 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>100</v>
       </c>
@@ -11405,15 +11661,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -11463,7 +11710,69 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Governance_x0020_Body xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">N/A</Governance_x0020_Body>
+    <Project_x0020_Lead xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Project_x0020_Lead>
+    <Agenda_x0020_Item xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03" xsi:nil="true"/>
+    <d272b355dc074d35ab4accda223657ae xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Forms and Templates</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">41b772d6-a41f-4d02-958f-381b9ff4b42f</TermId>
+        </TermInfo>
+      </Terms>
+    </d272b355dc074d35ab4accda223657ae>
+    <Policy_x0020_Status xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">Draft</Policy_x0020_Status>
+    <Standards_x0020_Team xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03"/>
+    <Year xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">2018</Year>
+    <Q_x0020_Month xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">N/A</Q_x0020_Month>
+    <gd34c2accb944e67adccaba771898deb xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Scheme Document</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">06569f6e-4ae0-49c6-87ba-c89c0bc72842</TermId>
+        </TermInfo>
+      </Terms>
+    </gd34c2accb944e67adccaba771898deb>
+    <TaxCatchAll xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
+      <Value>812</Value>
+      <Value>282</Value>
+    </TaxCatchAll>
+    <ff4ce1b1ad504abf83ff7affb41f5b7d xmlns="641cce0b-5f55-4fef-90f1-8df66e705b73">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff4ce1b1ad504abf83ff7affb41f5b7d>
+    <Meeting_x0020_Date xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03" xsi:nil="true"/>
+    <Internal xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">false</Internal>
+    <e169fb8ca9304a9c8e798ec8ba71f891 xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e169fb8ca9304a9c8e798ec8ba71f891>
+    <_dlc_DocId xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">MSCSCIENCE-1152523186-3313</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
+      <Url>https://marinestewardshipcouncil.sharepoint.com/sites/standards/_layouts/15/DocIdRedir.aspx?ID=MSCSCIENCE-1152523186-3313</Url>
+      <Description>MSCSCIENCE-1152523186-3313</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Project Doc" ma:contentTypeID="0x0101000ABD0346977A1C4DA3191955390F333D00641444BD3F5CEE46A42AFA5A84128487" ma:contentTypeVersion="240" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3c06c9b4e32415371713e460668d9eaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03" xmlns:ns3="df4b8a4b-0cfc-4c20-846f-ea898def5f03" xmlns:ns4="641cce0b-5f55-4fef-90f1-8df66e705b73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8660b3149cdbc5411d3829af62d386d8" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03"/>
@@ -11859,60 +12168,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Governance_x0020_Body xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">N/A</Governance_x0020_Body>
-    <Project_x0020_Lead xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Project_x0020_Lead>
-    <Agenda_x0020_Item xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03" xsi:nil="true"/>
-    <d272b355dc074d35ab4accda223657ae xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Forms and Templates</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">41b772d6-a41f-4d02-958f-381b9ff4b42f</TermId>
-        </TermInfo>
-      </Terms>
-    </d272b355dc074d35ab4accda223657ae>
-    <Policy_x0020_Status xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">Draft</Policy_x0020_Status>
-    <Standards_x0020_Team xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03"/>
-    <Year xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">2018</Year>
-    <Q_x0020_Month xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">N/A</Q_x0020_Month>
-    <gd34c2accb944e67adccaba771898deb xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Scheme Document</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">06569f6e-4ae0-49c6-87ba-c89c0bc72842</TermId>
-        </TermInfo>
-      </Terms>
-    </gd34c2accb944e67adccaba771898deb>
-    <TaxCatchAll xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
-      <Value>812</Value>
-      <Value>282</Value>
-    </TaxCatchAll>
-    <ff4ce1b1ad504abf83ff7affb41f5b7d xmlns="641cce0b-5f55-4fef-90f1-8df66e705b73">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff4ce1b1ad504abf83ff7affb41f5b7d>
-    <Meeting_x0020_Date xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03" xsi:nil="true"/>
-    <Internal xmlns="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03">false</Internal>
-    <e169fb8ca9304a9c8e798ec8ba71f891 xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e169fb8ca9304a9c8e798ec8ba71f891>
-    <_dlc_DocId xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">MSCSCIENCE-1152523186-3313</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="df4b8a4b-0cfc-4c20-846f-ea898def5f03">
-      <Url>https://marinestewardshipcouncil.sharepoint.com/sites/standards/_layouts/15/DocIdRedir.aspx?ID=MSCSCIENCE-1152523186-3313</Url>
-      <Description>MSCSCIENCE-1152523186-3313</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911D307D-3FF7-4F5D-918E-EF2CB0FB461D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D5B8FB3-619A-4819-B668-710CB49EC4DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -11920,15 +12184,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911D307D-3FF7-4F5D-918E-EF2CB0FB461D}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33CC41EC-BBD2-4A20-B8F8-48D3EF3170EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="df4b8a4b-0cfc-4c20-846f-ea898def5f03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="641cce0b-5f55-4fef-90f1-8df66e705b73"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC19F7C-3C0B-4551-988D-AE4901095FF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11946,22 +12220,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33CC41EC-BBD2-4A20-B8F8-48D3EF3170EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="DF4B8A4B-0CFC-4C20-846F-EA898DEF5F03"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="df4b8a4b-0cfc-4c20-846f-ea898def5f03"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="641cce0b-5f55-4fef-90f1-8df66e705b73"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>